--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625787.423754461</v>
+        <v>2619943.288749331</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256419</v>
+        <v>6239134.533256417</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069183</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>120.6676984421424</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>350.4192841891004</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.164561479402487</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.27910107855503</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>92.77326125392354</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>318.4831320324884</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>168.4743637384534</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>134.0618870358387</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>199.1111841176883</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>52.16105248341025</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>91.79300647370449</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>28.68313558002671</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040154</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.435299014555</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>105.2208681836993</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.2009709794783</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145567</v>
       </c>
       <c r="T17" t="n">
         <v>204.3497241367009</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>77.50693824514853</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>122.5626653919515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>88.70535520237868</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>39.52676478343898</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>159.6461437356195</v>
       </c>
       <c r="U28" t="n">
-        <v>266.0912315477407</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T31" t="n">
-        <v>124.9406737045325</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>45.61184052722629</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.4484607996172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.0203559212046</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32389483613349</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>128.5140923024267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0203559212044</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
         <v>295.6178616169272</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>53.0691106293736</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
@@ -3717,19 +3717,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>27.10637519976255</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>63.61606920447869</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>101.1243628899129</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4191,13 +4191,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0451334005478</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>189.7529499647457</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>175.8295459033366</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>437.5354894428046</v>
+        <v>398.3338608103787</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4725825998845</v>
+        <v>1404.543549400789</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>1404.543549400789</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1046.277850794038</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1046.277850794038</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1671.84632810689</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.077672836776</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>945.6119145756962</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y5" t="n">
-        <v>555.4725825998845</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1504.400259589022</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1135.437742648611</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1135.437742648611</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>749.6494900503662</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.400259589022</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286579</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286579</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>321.2872383163221</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>321.2872383163221</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148976</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C11" t="n">
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036593</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
         <v>443.7150397139484</v>
@@ -5047,22 +5047,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M11" t="n">
-        <v>2451.514037751685</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N11" t="n">
-        <v>3099.231944677224</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O11" t="n">
-        <v>3585.752505936256</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P11" t="n">
-        <v>4285.066269150652</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926292</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5071,22 +5071,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N12" t="n">
         <v>1737.471620890736</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>601.4695146268592</v>
+        <v>709.5735326357868</v>
       </c>
       <c r="C13" t="n">
-        <v>601.4695146268592</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D13" t="n">
-        <v>508.7493060675617</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E13" t="n">
-        <v>508.7493060675617</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
         <v>137.7436613720288</v>
@@ -5205,7 +5205,7 @@
         <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150415</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
         <v>983.9813277239498</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1339.668814705367</v>
+        <v>1884.105785750422</v>
       </c>
       <c r="V13" t="n">
-        <v>1339.668814705367</v>
+        <v>1629.421297544535</v>
       </c>
       <c r="W13" t="n">
-        <v>1050.251644668407</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X13" t="n">
-        <v>822.2620937703894</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y13" t="n">
-        <v>601.4695146268592</v>
+        <v>891.2219974660266</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138672</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.10555459151</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993266</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036583</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155728</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924156</v>
+        <v>141.555419892414</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
         <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>981.5980255772124</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1830.707891212205</v>
+        <v>1821.6299112557</v>
       </c>
       <c r="M14" t="n">
-        <v>2347.094370001889</v>
+        <v>2338.016390045384</v>
       </c>
       <c r="N14" t="n">
-        <v>3309.423785430529</v>
+        <v>2867.37235030616</v>
       </c>
       <c r="O14" t="n">
-        <v>3795.944346689561</v>
+        <v>3730.88509101531</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903958</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926292</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5348,25 +5348,25 @@
         <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>769.641472174067</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
         <v>1737.471620890736</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.6456203577103</v>
+        <v>232.2843065682491</v>
       </c>
       <c r="C16" t="n">
-        <v>540.3619151216504</v>
+        <v>232.2843065682491</v>
       </c>
       <c r="D16" t="n">
-        <v>390.2452757093147</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
         <v>137.7436613720288</v>
@@ -5442,7 +5442,7 @@
         <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150415</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
         <v>983.9813277239498</v>
@@ -5469,19 +5469,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V16" t="n">
-        <v>1117.711255224911</v>
+        <v>1152.132071476997</v>
       </c>
       <c r="W16" t="n">
-        <v>828.29408518795</v>
+        <v>862.7149014400363</v>
       </c>
       <c r="X16" t="n">
-        <v>828.29408518795</v>
+        <v>634.725350542019</v>
       </c>
       <c r="Y16" t="n">
-        <v>828.29408518795</v>
+        <v>413.9327713984889</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5515,25 +5515,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066561</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L17" t="n">
-        <v>1767.721909941649</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M17" t="n">
-        <v>2665.675091091658</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N17" t="n">
-        <v>3628.004506520298</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.52506777933</v>
+        <v>3987.986031196981</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4368.719073321609</v>
       </c>
       <c r="Q17" t="n">
         <v>4733.000021926293</v>
@@ -5545,22 +5545,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
         <v>1737.471620890736</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.1241452388376</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>324.1241452388376</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>174.0075058265019</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>174.0075058265019</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
         <v>95.71766921524075</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.613957833929</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.656398353472</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.656398353472</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>1243.971910147586</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>954.5547401106248</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>726.5651892126075</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.7726100690774</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L20" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2451.514037751685</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>3040.820486316874</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O20" t="n">
-        <v>3904.333227026024</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.000021926293</v>
@@ -5788,10 +5788,10 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
         <v>3156.072942178608</v>
@@ -5831,13 +5831,13 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
         <v>1277.536404075618</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3384.041354797291</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
-        <v>3215.105171869384</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>3215.105171869384</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T22" t="n">
-        <v>4279.62137047225</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.516066014277</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V22" t="n">
-        <v>3735.831577808391</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W22" t="n">
-        <v>3612.030905695308</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X22" t="n">
-        <v>3384.041354797291</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y22" t="n">
-        <v>3384.041354797291</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G23" t="n">
         <v>440.1593205155743</v>
@@ -5989,25 +5989,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
-        <v>1550.05964910851</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2511.464526056098</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>3040.820486316874</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O23" t="n">
-        <v>3904.333227026024</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
         <v>4733.000021926293</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439725</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>668.6172596043758</v>
+        <v>135.6436942490175</v>
       </c>
       <c r="C25" t="n">
-        <v>499.6810766764689</v>
+        <v>135.6436942490175</v>
       </c>
       <c r="D25" t="n">
-        <v>499.6810766764689</v>
+        <v>135.6436942490175</v>
       </c>
       <c r="E25" t="n">
-        <v>499.6810766764689</v>
+        <v>135.6436942490175</v>
       </c>
       <c r="F25" t="n">
-        <v>410.0797077851773</v>
+        <v>135.6436942490175</v>
       </c>
       <c r="G25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6174,25 +6174,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.774119163341</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T25" t="n">
-        <v>1406.816559682884</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.816559682884</v>
+        <v>1310.175947363652</v>
       </c>
       <c r="V25" t="n">
-        <v>1406.816559682884</v>
+        <v>1055.491459157765</v>
       </c>
       <c r="W25" t="n">
-        <v>1117.399389645923</v>
+        <v>766.0742891208047</v>
       </c>
       <c r="X25" t="n">
-        <v>889.409838747906</v>
+        <v>538.0847382227873</v>
       </c>
       <c r="Y25" t="n">
-        <v>668.6172596043758</v>
+        <v>317.2921590792572</v>
       </c>
     </row>
     <row r="26">
@@ -6211,7 +6211,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
         <v>855.3313972036599</v>
@@ -6232,22 +6232,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1562.10459209855</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M26" t="n">
-        <v>2078.491070888233</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N26" t="n">
-        <v>3040.820486316874</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6262,13 +6262,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y26" t="n">
         <v>2765.933610202796</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C27" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F27" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G27" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H27" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I27" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>2382.843886476065</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
-        <v>2612.671804624322</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>2968.026344256523</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>3402.065199188758</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
-        <v>3862.000416003877</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>4260.531488552865</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
-        <v>4561.054743150146</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R27" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S27" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T27" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U27" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V27" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W27" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X27" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y27" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3750.125869083408</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>3581.189686155501</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>3431.073046743166</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>3283.159953160773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>3136.270005662862</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>4501.578929952707</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>4501.578929952707</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>4232.799908187312</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>3978.115419981425</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>3978.115419981425</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>3750.125869083408</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>3750.125869083408</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6466,22 +6466,22 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>826.5935157896522</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1262.218779019699</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M29" t="n">
-        <v>2223.623655967287</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N29" t="n">
-        <v>3185.953071395928</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O29" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
         <v>4667.940766252041</v>
@@ -6542,22 +6542,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P30" t="n">
         <v>2436.525948037006</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T31" t="n">
-        <v>1786.875949261022</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U31" t="n">
-        <v>1497.770644803049</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>1243.086156597162</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>953.668986560201</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>953.668986560201</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>953.668986560201</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6706,22 +6706,22 @@
         <v>918.6120443066561</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.721909941649</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M32" t="n">
-        <v>2729.126786889237</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N32" t="n">
-        <v>3309.42378543053</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O32" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439725</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.2431309181712</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="C34" t="n">
-        <v>639.3069479902643</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="D34" t="n">
-        <v>489.1903085779286</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="E34" t="n">
-        <v>341.2772149955355</v>
+        <v>141.7902354043582</v>
       </c>
       <c r="F34" t="n">
-        <v>194.3872674976251</v>
+        <v>141.7902354043582</v>
       </c>
       <c r="G34" t="n">
-        <v>194.3872674976251</v>
+        <v>141.7902354043582</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1821.238811302082</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>1599.281251821626</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1599.281251821626</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V34" t="n">
-        <v>1344.596763615739</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="W34" t="n">
-        <v>1344.596763615739</v>
+        <v>920.1339238585385</v>
       </c>
       <c r="X34" t="n">
-        <v>1116.607212717721</v>
+        <v>692.1443729605212</v>
       </c>
       <c r="Y34" t="n">
-        <v>989.891595748411</v>
+        <v>471.3517938169911</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>681.4609307105986</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1117.086193940645</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M35" t="n">
-        <v>2078.491070888233</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N35" t="n">
-        <v>3040.820486316874</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O35" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,7 +7016,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
         <v>488.1430095111811</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3582.102908838923</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="C37" t="n">
-        <v>3413.166725911016</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="D37" t="n">
-        <v>3263.050086498681</v>
+        <v>130.38827005982</v>
       </c>
       <c r="E37" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>4472.086062610992</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.980758153019</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V37" t="n">
-        <v>4053.168543706124</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W37" t="n">
-        <v>3763.751373669163</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X37" t="n">
-        <v>3763.751373669163</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y37" t="n">
-        <v>3763.751373669163</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1562.10459209855</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M38" t="n">
-        <v>2078.491070888233</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N38" t="n">
-        <v>3040.820486316874</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O38" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.9583456721534</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="C40" t="n">
-        <v>546.0221627442465</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D40" t="n">
-        <v>395.9055233319108</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E40" t="n">
-        <v>247.9924297495177</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F40" t="n">
-        <v>247.9924297495177</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G40" t="n">
-        <v>194.3872674976251</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U40" t="n">
-        <v>1406.816559682884</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V40" t="n">
-        <v>1406.816559682884</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W40" t="n">
-        <v>1117.399389645923</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X40" t="n">
-        <v>1117.399389645923</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y40" t="n">
-        <v>896.6068105023932</v>
+        <v>410.0797077851773</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7414,22 +7414,22 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
-        <v>765.113734881556</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1388.656456087836</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M41" t="n">
-        <v>1905.04293487752</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N41" t="n">
-        <v>2867.37235030616</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O41" t="n">
-        <v>3730.88509101531</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
         <v>4667.940766252041</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7505,10 +7505,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>867.8110029099649</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7596,25 +7596,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1821.238811302082</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
-        <v>1821.238811302082</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U43" t="n">
-        <v>1532.133506844109</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.449018638222</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W43" t="n">
-        <v>1277.449018638222</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X43" t="n">
-        <v>1049.459467740205</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y43" t="n">
-        <v>1049.459467740205</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>323.569812588163</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K44" t="n">
-        <v>644.9685077557706</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1494.078373390763</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2455.483250338351</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N44" t="n">
-        <v>3417.812665766992</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O44" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,28 +7727,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L45" t="n">
-        <v>801.8162955070546</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M45" t="n">
-        <v>1235.85515043929</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N45" t="n">
-        <v>1695.790367254409</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P45" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R45" t="n">
         <v>2587.498588679581</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.2913252993137</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C46" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.721920171101</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.721920171101</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.721920171101</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X46" t="n">
-        <v>981.7323692730836</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.9397901295534</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>119.5575218835979</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>74.60209794880348</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>218.6710007026832</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>303.0171259582268</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>74.60209794880348</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>385.4209114750762</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>127.8172086690401</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>74.60209794880348</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>60.55604879233579</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>74.6020979488033</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>28.70372984995356</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>40.87033893080201</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>3.419393410990466</v>
@@ -10114,25 +10114,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>62.10078879605675</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>53.84110201061674</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>259.7987504703956</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>51.45559422274471</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>84.59883318120774</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061708</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>209.9669541028757</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>189.8156141174074</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>53.84110201061674</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990466</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>47.73779989350265</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>32.49982154847237</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>56.82246654450786</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>257.5311158333668</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.541877736599417e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.02595291492858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.41450203873407</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
         <v>97.68290229956055</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>67.91410977778271</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
@@ -23940,13 +23940,13 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>163.9603329446395</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>56.71569282055256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>126.5432856182342</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956055</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>60.0918401500326</v>
       </c>
       <c r="U28" t="n">
-        <v>20.12301986565279</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T31" t="n">
-        <v>94.79731018111968</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>99.53652725533772</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.1361925524776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>112.1100678104357</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
         <v>97.68290229956055</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>123.6235510214013</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>113.0009397722996</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>191.4782781523322</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>103.6307518941491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>151.0132804339151</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1691180128456722</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796094.4383395123</v>
+        <v>796094.4383395124</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796094.4383395123</v>
+        <v>796094.4383395124</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796094.4383395123</v>
+        <v>796094.4383395124</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>614589.4181987243</v>
+      </c>
+      <c r="F2" t="n">
+        <v>614589.4181987235</v>
+      </c>
+      <c r="G2" t="n">
+        <v>614589.4181987245</v>
+      </c>
+      <c r="H2" t="n">
+        <v>614589.4181987244</v>
+      </c>
+      <c r="I2" t="n">
+        <v>614589.4181987243</v>
+      </c>
+      <c r="J2" t="n">
         <v>614589.4181987242</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>614589.4181987239</v>
+      </c>
+      <c r="L2" t="n">
         <v>614589.4181987244</v>
       </c>
-      <c r="G2" t="n">
-        <v>614589.4181987244</v>
-      </c>
-      <c r="H2" t="n">
-        <v>614589.4181987239</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>614589.4181987243</v>
+      </c>
+      <c r="N2" t="n">
+        <v>614589.4181987243</v>
+      </c>
+      <c r="O2" t="n">
+        <v>614589.4181987242</v>
+      </c>
+      <c r="P2" t="n">
         <v>614589.418198724</v>
-      </c>
-      <c r="J2" t="n">
-        <v>614589.4181987244</v>
-      </c>
-      <c r="K2" t="n">
-        <v>614589.4181987246</v>
-      </c>
-      <c r="L2" t="n">
-        <v>614589.4181987242</v>
-      </c>
-      <c r="M2" t="n">
-        <v>614589.4181987244</v>
-      </c>
-      <c r="N2" t="n">
-        <v>614589.4181987242</v>
-      </c>
-      <c r="O2" t="n">
-        <v>614589.4181987243</v>
-      </c>
-      <c r="P2" t="n">
-        <v>614589.4181987244</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581155</v>
       </c>
       <c r="G4" t="n">
+        <v>23693.12563581156</v>
+      </c>
+      <c r="H4" t="n">
         <v>23693.12563581162</v>
       </c>
-      <c r="H4" t="n">
-        <v>23693.1256358116</v>
-      </c>
       <c r="I4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="L4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="O4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
         <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="K5" t="n">
         <v>95967.7133920692</v>
@@ -26524,46 +26524,46 @@
         <v>-228726.1820255641</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889808</v>
+        <v>361241.6971889804</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889803</v>
+        <v>361241.6971889805</v>
       </c>
       <c r="E6" t="n">
-        <v>-213322.5175809848</v>
+        <v>-214023.0967244072</v>
       </c>
       <c r="F6" t="n">
-        <v>494928.5791708436</v>
+        <v>494228.0000274202</v>
       </c>
       <c r="G6" t="n">
-        <v>494928.5791708436</v>
+        <v>494228.0000274213</v>
       </c>
       <c r="H6" t="n">
-        <v>494928.5791708431</v>
+        <v>494228.0000274212</v>
       </c>
       <c r="I6" t="n">
-        <v>494928.5791708432</v>
+        <v>494228.000027421</v>
       </c>
       <c r="J6" t="n">
-        <v>318505.3599782506</v>
+        <v>317804.780834828</v>
       </c>
       <c r="K6" t="n">
-        <v>494928.5791708438</v>
+        <v>494228.0000274207</v>
       </c>
       <c r="L6" t="n">
-        <v>494928.5791708434</v>
+        <v>494228.0000274212</v>
       </c>
       <c r="M6" t="n">
-        <v>364798.3392014342</v>
+        <v>364097.7600580116</v>
       </c>
       <c r="N6" t="n">
-        <v>494928.5791708434</v>
+        <v>494228.000027421</v>
       </c>
       <c r="O6" t="n">
-        <v>494928.5791708435</v>
+        <v>494228.0000274209</v>
       </c>
       <c r="P6" t="n">
-        <v>494928.5791708436</v>
+        <v>494228.0000274208</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359535</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359535</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359535</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>203.2550743222147</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.3118164893686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.6674187025348</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>120.3363719396573</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>314.1027844877879</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>9.269126437646548</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.35761644348386</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.5535859823737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>207.7648616240231</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>93.25999553952099</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.645518970125805e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35415,16 +35415,16 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M11" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>654.260512045998</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
         <v>706.3775386004008</v>
@@ -35433,7 +35433,7 @@
         <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
@@ -35500,7 +35500,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.581027085978</v>
+        <v>539.1831250347815</v>
       </c>
       <c r="O12" t="n">
         <v>402.556638938372</v>
@@ -35649,19 +35649,19 @@
         <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>543.3161473366303</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646391</v>
+        <v>743.0426443724155</v>
       </c>
       <c r="M14" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004008</v>
@@ -35670,7 +35670,7 @@
         <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
@@ -35737,7 +35737,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>539.1831250347815</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
         <v>402.556638938372</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M17" t="n">
-        <v>907.0234153030395</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N17" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771049</v>
+        <v>367.960554146145</v>
       </c>
       <c r="R17" t="n">
         <v>53.4176149856001</v>
@@ -35965,7 +35965,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
@@ -35974,7 +35974,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>539.1831250347815</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
         <v>402.556638938372</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L20" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N20" t="n">
-        <v>595.2590389547358</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P20" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R20" t="n">
         <v>53.4176149856001</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
@@ -36208,7 +36208,7 @@
         <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>513.0251837389404</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N21" t="n">
         <v>464.581027085978</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>468.7292482641422</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P23" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R23" t="n">
         <v>53.4176149856001</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
@@ -36451,7 +36451,7 @@
         <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
         <v>303.5588430275571</v>
@@ -36600,25 +36600,25 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>480.8958573449906</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M26" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709661</v>
@@ -36694,7 +36694,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>351.5124954532401</v>
       </c>
       <c r="K29" t="n">
-        <v>386.7459354300038</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207958</v>
+        <v>575.4436058385801</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R29" t="n">
         <v>119.1340348585825</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
@@ -36928,7 +36928,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q30" t="n">
         <v>152.4976168106822</v>
@@ -37074,25 +37074,25 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>699.8242688845843</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N32" t="n">
-        <v>586.1585843851448</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O32" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P32" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
@@ -37162,7 +37162,7 @@
         <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P33" t="n">
         <v>303.5588430275571</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>409.2439798151548</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254038</v>
+        <v>545.2760123732755</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K38" t="n">
         <v>648.7905592051118</v>
       </c>
       <c r="L38" t="n">
-        <v>649.9924725170644</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M38" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O38" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>351.5124954532401</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L41" t="n">
-        <v>629.841132531596</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279633</v>
+        <v>575.4436058385801</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P41" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
         <v>119.1340348585825</v>
@@ -37873,13 +37873,13 @@
         <v>464.581027085978</v>
       </c>
       <c r="O42" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
         <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>230.153680174669</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K44" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R44" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
-        <v>391.4438009749383</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
         <v>438.4230857901371</v>
@@ -38119,7 +38119,7 @@
         <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
-        <v>42.10227640033035</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2619943.288749331</v>
+        <v>2623493.848536725</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256417</v>
+        <v>6239134.533256416</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069183</v>
+        <v>840694.9721069181</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>120.6676984421424</v>
+        <v>304.0470687359107</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481192</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250398</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229343</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>28.27910107855503</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491443</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>12.62825841548137</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>92.77326125392354</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.4743637384534</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295487</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>126.4288597294693</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>28.68313558002671</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040154</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.2009709794783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5995875786015</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>111.4352990145567</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T17" t="n">
         <v>204.3497241367009</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4482050673217</v>
+        <v>39.52676478343903</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>39.52676478343898</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>39.52676478343903</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
@@ -2572,7 +2572,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169286</v>
       </c>
       <c r="I26" t="n">
         <v>45.37937317040308</v>
@@ -2611,7 +2611,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>159.6461437356195</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>28.68313558002648</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>64.63965764608876</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>45.61184052722629</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>141.9106946535996</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>34.32389483613349</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>119.740140031905</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3556,7 +3556,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U38" t="n">
         <v>251.0030623803221</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>192.0458031737955</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>27.10637519976255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>7.32561409521122</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>101.1243628899129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1190.01094596018</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>1190.01094596018</v>
       </c>
       <c r="D2" t="n">
-        <v>582.4867033121934</v>
+        <v>1190.01094596018</v>
       </c>
       <c r="E2" t="n">
-        <v>196.6984507139492</v>
+        <v>1190.01094596018</v>
       </c>
       <c r="F2" t="n">
-        <v>189.7529499647457</v>
+        <v>779.0250411705722</v>
       </c>
       <c r="G2" t="n">
-        <v>175.8295459033366</v>
+        <v>361.0612330687591</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036437</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036437</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224063</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280441</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977172</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642686</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791248</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018218</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548711</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862882</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834944</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834944</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491374</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.47670422126</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1190.01094596018</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1190.01094596018</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170789</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359519</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747006</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692451</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961301</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423962</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673381</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036437</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615922</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572638</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315294</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414845</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435188</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050017</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018218</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430043</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073959</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196738</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167578</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935835</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207634</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002101</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237147</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103787</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824718</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036437</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036437</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866323</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477905</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658202</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.604038850249</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594889</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206433</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600548</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>685.9562484787605</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.543549400789</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1404.543549400789</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>1046.277850794038</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>1046.277850794038</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.543549400789</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,28 +4649,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,16 +4804,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641998</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598715</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>325.687940232664</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047571</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629037</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5047,22 +5047,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1886.689166929953</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.02943534674</v>
+        <v>2403.075645719636</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5132,10 +5132,10 @@
         <v>1203.680327106303</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.5735326357868</v>
+        <v>539.2497185597139</v>
       </c>
       <c r="C13" t="n">
-        <v>540.6373497078799</v>
+        <v>370.313535631807</v>
       </c>
       <c r="D13" t="n">
-        <v>390.5207102955442</v>
+        <v>370.313535631807</v>
       </c>
       <c r="E13" t="n">
-        <v>242.6076167131511</v>
+        <v>370.313535631807</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524075</v>
+        <v>223.4235881338966</v>
       </c>
       <c r="G13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U13" t="n">
-        <v>1884.105785750422</v>
+        <v>1532.133506844109</v>
       </c>
       <c r="V13" t="n">
-        <v>1629.421297544535</v>
+        <v>1277.449018638222</v>
       </c>
       <c r="W13" t="n">
-        <v>1340.004127507574</v>
+        <v>988.0318486012613</v>
       </c>
       <c r="X13" t="n">
-        <v>1112.014576609557</v>
+        <v>760.042297703244</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.2219974660266</v>
+        <v>539.2497185597139</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138672</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.10555459151</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993266</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036583</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155728</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
-        <v>141.555419892414</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5284,19 +5284,19 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1821.6299112557</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M14" t="n">
-        <v>2338.016390045384</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N14" t="n">
-        <v>2867.37235030616</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O14" t="n">
-        <v>3730.88509101531</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>232.2843065682491</v>
+        <v>562.6835851378764</v>
       </c>
       <c r="C16" t="n">
-        <v>232.2843065682491</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U16" t="n">
-        <v>1406.816559682884</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V16" t="n">
-        <v>1152.132071476997</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W16" t="n">
-        <v>862.7149014400363</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X16" t="n">
-        <v>634.725350542019</v>
+        <v>965.1246291116463</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9327713984889</v>
+        <v>744.3320499681162</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155743</v>
@@ -5518,22 +5518,22 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>765.113734881556</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1200.738998111603</v>
+        <v>1676.497326176647</v>
       </c>
       <c r="M17" t="n">
-        <v>2162.143875059191</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N17" t="n">
-        <v>3124.473290487831</v>
+        <v>2722.239765227107</v>
       </c>
       <c r="O17" t="n">
-        <v>3987.986031196981</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P17" t="n">
-        <v>4368.719073321609</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q17" t="n">
         <v>4733.000021926293</v>
@@ -5545,22 +5545,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="18">
@@ -5594,7 +5594,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
         <v>488.1430095111811</v>
@@ -5697,7 +5697,7 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
         <v>1781.312786268305</v>
@@ -5737,7 +5737,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
         <v>855.3313972036599</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D25" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
         <v>95.71766921524075</v>
@@ -6174,25 +6174,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1821.238811302082</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T25" t="n">
-        <v>1599.281251821626</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U25" t="n">
-        <v>1310.175947363652</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V25" t="n">
-        <v>1055.491459157765</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W25" t="n">
-        <v>766.0742891208047</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X25" t="n">
-        <v>538.0847382227873</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
-        <v>317.2921590792572</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138675</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198264</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591514</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.31730199327</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036617</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155759</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K26" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L26" t="n">
-        <v>1611.438070502395</v>
+        <v>1327.278034693954</v>
       </c>
       <c r="M26" t="n">
-        <v>2127.824549292078</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N26" t="n">
-        <v>2657.180509552854</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O26" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779332</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903961</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926295</v>
       </c>
       <c r="R26" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762039</v>
       </c>
       <c r="S26" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666528</v>
       </c>
       <c r="T26" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902184</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053374</v>
       </c>
       <c r="V26" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709803</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439689</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178609</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202797</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I27" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J27" t="n">
         <v>258.3150913629246</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.71766921524075</v>
+        <v>709.5735326357869</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>540.63734970788</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>390.5207102955443</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="H28" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="I28" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K28" t="n">
         <v>336.6421130738839</v>
@@ -6411,25 +6411,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.249922329876</v>
+        <v>1884.105785750422</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.565434123989</v>
+        <v>1629.421297544535</v>
       </c>
       <c r="W28" t="n">
-        <v>726.1482640870279</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X28" t="n">
-        <v>498.1587131890105</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3661340454805</v>
+        <v>891.2219974660267</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6469,13 +6469,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.816728742196</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N29" t="n">
-        <v>3034.172689002972</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
         <v>3520.693250262004</v>
@@ -6542,22 +6542,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
         <v>2436.525948037006</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>582.5180172137391</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G31" t="n">
         <v>95.71766921524075</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.355226787849</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.249922329876</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.565434123989</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="W31" t="n">
-        <v>726.1482640870279</v>
+        <v>1050.251644668407</v>
       </c>
       <c r="X31" t="n">
-        <v>498.1587131890105</v>
+        <v>984.959061187509</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3661340454805</v>
+        <v>764.1664820439788</v>
       </c>
     </row>
     <row r="32">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289.7033289867513</v>
+        <v>854.9993882778166</v>
       </c>
       <c r="C34" t="n">
-        <v>289.7033289867513</v>
+        <v>854.9993882778166</v>
       </c>
       <c r="D34" t="n">
-        <v>289.7033289867513</v>
+        <v>704.8827488654808</v>
       </c>
       <c r="E34" t="n">
-        <v>141.7902354043582</v>
+        <v>556.9696552830877</v>
       </c>
       <c r="F34" t="n">
-        <v>141.7902354043582</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G34" t="n">
-        <v>141.7902354043582</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353472</v>
+        <v>1485.429983149604</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.551093895499</v>
+        <v>1485.429983149604</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.551093895499</v>
+        <v>1485.429983149604</v>
       </c>
       <c r="W34" t="n">
-        <v>920.1339238585385</v>
+        <v>1485.429983149604</v>
       </c>
       <c r="X34" t="n">
-        <v>692.1443729605212</v>
+        <v>1257.440432251586</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.3517938169911</v>
+        <v>1036.647853108056</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K35" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L35" t="n">
-        <v>1935.127558962002</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M35" t="n">
-        <v>2451.514037751685</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N35" t="n">
-        <v>2980.869998012462</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O35" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P35" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>449.4410924000626</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="C37" t="n">
-        <v>280.5049094721558</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="D37" t="n">
-        <v>130.38827005982</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="F37" t="n">
         <v>95.71766921524075</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U37" t="n">
-        <v>1623.973345514697</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V37" t="n">
-        <v>1369.288857308811</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W37" t="n">
-        <v>1079.87168727185</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X37" t="n">
-        <v>851.8821363738325</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y37" t="n">
-        <v>631.0895572303024</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.02943534674</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
         <v>95.71766921524075</v>
@@ -7368,16 +7368,16 @@
         <v>1209.551093895499</v>
       </c>
       <c r="V40" t="n">
-        <v>954.8666056896124</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>665.4494356526518</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>437.4598847546345</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>410.0797077851773</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L41" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M41" t="n">
-        <v>2504.816728742196</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N41" t="n">
-        <v>3034.172689002972</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P41" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>646.7065581874474</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>639.3069479902643</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>489.1903085779286</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7596,25 +7596,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682884</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>1566.554323096195</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>1277.137153059235</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>1049.147602161217</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>828.3550230176871</v>
       </c>
     </row>
     <row r="44">
@@ -7654,10 +7654,10 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M44" t="n">
-        <v>2038.02943534674</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N44" t="n">
         <v>2657.180509552854</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747007</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719089</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>368.7335458312088</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832199</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8710,10 +8710,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>74.60209794880348</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>303.0171259582268</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>156.418555171304</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>127.8172086690401</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>90.70213529832193</v>
+        <v>296.9138238411153</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880333</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>53.84110201061674</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,22 +10594,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>373.2543023942278</v>
       </c>
       <c r="O35" t="n">
-        <v>53.84110201061708</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>90.70213529832199</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>53.84110201061674</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990466</v>
@@ -11302,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>90.70213529832199</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>39.64119067220386</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
@@ -23472,7 +23472,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>257.5311158333668</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.541877736599417e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.41450203873407</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>112.1100678104356</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.09184015003257</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>126.5432856182342</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
@@ -24651,13 +24651,13 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>60.0918401500326</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>257.531115833367</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>161.0699977429484</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.53652725533772</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956055</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>77.82728923205258</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>112.1100678104357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102629</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
@@ -25362,10 +25362,10 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956055</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>60.09184015003245</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>191.4782781523322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>159.9212070034166</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
@@ -25806,7 +25806,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>151.0132804339151</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>853663.1828294873</v>
+        <v>853663.1828294874</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796094.4383395123</v>
+        <v>796094.4383395124</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796094.4383395123</v>
+        <v>796094.4383395124</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796094.4383395124</v>
+        <v>796094.4383395123</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796094.4383395123</v>
+        <v>796094.4383395124</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="F2" t="n">
+        <v>614589.4181987239</v>
+      </c>
+      <c r="G2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="H2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="I2" t="n">
+        <v>614589.4181987245</v>
+      </c>
+      <c r="J2" t="n">
         <v>614589.4181987243</v>
       </c>
-      <c r="F2" t="n">
-        <v>614589.4181987235</v>
-      </c>
-      <c r="G2" t="n">
-        <v>614589.4181987245</v>
-      </c>
-      <c r="H2" t="n">
-        <v>614589.4181987244</v>
-      </c>
-      <c r="I2" t="n">
-        <v>614589.4181987243</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="L2" t="n">
         <v>614589.4181987242</v>
-      </c>
-      <c r="K2" t="n">
-        <v>614589.4181987239</v>
-      </c>
-      <c r="L2" t="n">
-        <v>614589.4181987244</v>
       </c>
       <c r="M2" t="n">
         <v>614589.4181987243</v>
       </c>
       <c r="N2" t="n">
+        <v>614589.4181987244</v>
+      </c>
+      <c r="O2" t="n">
         <v>614589.4181987243</v>
-      </c>
-      <c r="O2" t="n">
-        <v>614589.4181987242</v>
       </c>
       <c r="P2" t="n">
         <v>614589.418198724</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145433</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.096217218728651e-09</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518282</v>
+        <v>708251.0967518286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.59639243</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581155</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581156</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="H4" t="n">
         <v>23693.12563581162</v>
@@ -26441,7 +26441,7 @@
         <v>23693.12563581162</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="K4" t="n">
         <v>23693.12563581162</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634094</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,19 +26481,19 @@
         <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="K5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.1820255641</v>
+        <v>-228726.1820255633</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889804</v>
+        <v>361241.6971889795</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889805</v>
+        <v>361241.6971889809</v>
       </c>
       <c r="E6" t="n">
-        <v>-214023.0967244072</v>
+        <v>-213392.5754953276</v>
       </c>
       <c r="F6" t="n">
-        <v>494228.0000274202</v>
+        <v>494858.5212565009</v>
       </c>
       <c r="G6" t="n">
-        <v>494228.0000274213</v>
+        <v>494858.521256501</v>
       </c>
       <c r="H6" t="n">
-        <v>494228.0000274212</v>
+        <v>494858.521256501</v>
       </c>
       <c r="I6" t="n">
-        <v>494228.000027421</v>
+        <v>494858.5212565014</v>
       </c>
       <c r="J6" t="n">
-        <v>317804.780834828</v>
+        <v>318435.3020639083</v>
       </c>
       <c r="K6" t="n">
-        <v>494228.0000274207</v>
+        <v>494858.521256501</v>
       </c>
       <c r="L6" t="n">
-        <v>494228.0000274212</v>
+        <v>494858.5212565011</v>
       </c>
       <c r="M6" t="n">
-        <v>364097.7600580116</v>
+        <v>364728.2812870918</v>
       </c>
       <c r="N6" t="n">
-        <v>494228.000027421</v>
+        <v>494858.5212565013</v>
       </c>
       <c r="O6" t="n">
-        <v>494228.0000274209</v>
+        <v>494858.5212565012</v>
       </c>
       <c r="P6" t="n">
-        <v>494228.0000274208</v>
+        <v>494858.521256501</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170858</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545546</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>1196.470865190509</v>
       </c>
       <c r="J4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="K4" t="n">
         <v>1196.470865190509</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170858</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.498757273107</v>
+        <v>687.4987572731075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545546</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.898491849127667e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545546</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.898491849127667e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>203.2550743222147</v>
+        <v>19.87570402844648</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448614</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.277467269275803e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.3363719396573</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853711</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.0369335646766</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>314.1027844877879</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.35761644348386</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.1947234108078</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866365</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.645518970125805e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340042</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140996</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554453</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727433</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081573</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630664</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405362</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338298</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.861538911986</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954661</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044133</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633776</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727374</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473538</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472033</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141091</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188896</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890683</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396459</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649099</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478003</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983117</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736695</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923043</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479574</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639063</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034971</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131469</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372658</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061914</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078595</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644428</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813567</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302221</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246922</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917247</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666592</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175822</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383782</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329677995</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701157</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695333</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197217</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315602</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435296</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492231</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530446</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116792</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898685</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770673</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031295</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713853</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262933</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338897</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245894</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735643</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535483</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713936</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850083</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535653</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458878</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557979</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873131</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.40709186246</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141886</v>
+        <v>808.7590642453974</v>
       </c>
       <c r="M11" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>625.405125460722</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O11" t="n">
         <v>872.2350916254038</v>
@@ -35430,10 +35430,10 @@
         <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>539.1831250347815</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
         <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35652,7 +35652,7 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>743.0426443724155</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M14" t="n">
         <v>521.6025038279633</v>
@@ -35667,7 +35667,7 @@
         <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585825</v>
@@ -35886,25 +35886,25 @@
         <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
-        <v>440.0255184141886</v>
+        <v>596.4440735854927</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O17" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.960554146145</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
         <v>53.4176149856001</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K20" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R20" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
-        <v>530.7276537125106</v>
+        <v>736.9393422553039</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N26" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M29" t="n">
-        <v>575.4436058385801</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624001</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
         <v>706.3775386004008</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
@@ -36928,7 +36928,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
         <v>152.4976168106822</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K35" t="n">
         <v>648.7905592051118</v>
@@ -37314,22 +37314,22 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624001</v>
+        <v>907.9572925566279</v>
       </c>
       <c r="O35" t="n">
-        <v>545.2760123732755</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N38" t="n">
-        <v>625.405125460722</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L41" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>575.4436058385801</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>491.4349103626585</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
@@ -37879,7 +37879,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141886</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M44" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
-        <v>625.405125460722</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254038</v>
